--- a/Lampiran/Data Embung/Perbandingan Ranking dengan metode lain.xlsx
+++ b/Lampiran/Data Embung/Perbandingan Ranking dengan metode lain.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\File Data\TA\Tugas Akhir - Latest\GitHub\Data Embung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\File Data\TA\Tugas Akhir - Latest\GitHub\Lampiran\Data Embung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0332DF95-0C1B-41D3-88E4-94C9D899E7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC4EEE9-2D1C-4D92-A293-CD30DEB5474E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0D25A53F-2977-4FD5-BBD6-FE3D1DB5F953}"/>
   </bookViews>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A690A349-0989-42B2-B51F-5F1ED5081920}">
   <dimension ref="B3:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,10 +757,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
+      <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -768,6 +768,7 @@
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
     </row>
     <row r="4" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
@@ -1098,7 +1099,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
